--- a/data/users/output.xlsx
+++ b/data/users/output.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
   <si>
     <t>Nombre</t>
   </si>
@@ -50,6 +50,9 @@
     <t>Cámara</t>
   </si>
   <si>
+    <t>Contactos</t>
+  </si>
+  <si>
     <t>Guillermo Fernando</t>
   </si>
   <si>
@@ -62,7 +65,7 @@
     <t/>
   </si>
   <si>
-    <t>guillermo.campos@usach.cl</t>
+    <t>guillermo.campos19@gmail.com</t>
   </si>
   <si>
     <t>944011085</t>
@@ -71,10 +74,31 @@
     <t>Info</t>
   </si>
   <si>
-    <t>2020-08-02T03:33:01.146539</t>
-  </si>
-  <si>
-    <t>2020-08-02T04:44:01.706617</t>
+    <t>2020-08-02T14:47:00.592149</t>
+  </si>
+  <si>
+    <t>2020-08-02T14:50:00.659337</t>
+  </si>
+  <si>
+    <t>Jessica Scarlett</t>
+  </si>
+  <si>
+    <t>Flores Coloma</t>
+  </si>
+  <si>
+    <t>19221664-8</t>
+  </si>
+  <si>
+    <t>scarleeeeettttt@gmail.com</t>
+  </si>
+  <si>
+    <t>979111686</t>
+  </si>
+  <si>
+    <t>Salud</t>
+  </si>
+  <si>
+    <t>2020-08-02T14:50:00.859029</t>
   </si>
 </sst>
 </file>
@@ -126,7 +150,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -137,13 +161,14 @@
     <col min="3" max="3" width="12.53515625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="7.421875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="7.8046875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="25.765625" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="30.15625" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="11.4765625" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="15.05859375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="29.25" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="7.68359375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="29.25" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="7.36328125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="29.25" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="7.80859375" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="18.60546875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -183,113 +208,86 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2"/>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J2" t="s">
         <v>20</v>
       </c>
-      <c r="K2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L2" t="s">
-        <v>15</v>
+      <c r="K2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D3"/>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M3" t="s">
         <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4"/>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L4" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/data/users/output.xlsx
+++ b/data/users/output.xlsx
@@ -71,13 +71,13 @@
     <t>944011085</t>
   </si>
   <si>
-    <t>Info</t>
-  </si>
-  <si>
-    <t>2020-08-02T14:47:00.592149</t>
-  </si>
-  <si>
-    <t>2020-08-02T14:50:00.659337</t>
+    <t>Dev</t>
+  </si>
+  <si>
+    <t>2020-08-02T20:46:00.973975</t>
+  </si>
+  <si>
+    <t>2020-08-02T20:48:00.950176</t>
   </si>
   <si>
     <t>Jessica Scarlett</t>
@@ -89,7 +89,7 @@
     <t>19221664-8</t>
   </si>
   <si>
-    <t>scarleeeeettttt@gmail.com</t>
+    <t>admin@admin.cl</t>
   </si>
   <si>
     <t>979111686</t>
@@ -98,7 +98,7 @@
     <t>Salud</t>
   </si>
   <si>
-    <t>2020-08-02T14:50:00.859029</t>
+    <t>2020-08-02T20:47:01.792884</t>
   </si>
 </sst>
 </file>

--- a/data/users/output.xlsx
+++ b/data/users/output.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guillermo/Documents/Personal/Projects/Tracking 4D/tracking4d-nuxt/data/users/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18F82D42-374A-2F4C-AD61-BDAC4F481C08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71978328-33DE-8947-B69C-A77CCE4A4669}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -413,7 +413,7 @@
   <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:M2"/>
+      <selection activeCell="A2" sqref="A2:L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
